--- a/pred_ohlcv/54_21/2019-10-27 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ORBS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-227539.6132</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-227539.6132</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-597808.8236</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-662578.8741</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-534728.3211000001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-530710.3690000001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1934270.249842623</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2174740.124042623</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2010305.432842623</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2010260.432842623</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2010238.432842623</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ORBS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-227539.6132</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-227539.6132</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-497189.2268000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-597808.8236</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-530710.3690000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-339030.4675999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-339052.5336999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-356457.9758999998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1934280.249842623</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1934280.249842623</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2174740.124042623</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2177303.328742623</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2010305.432842623</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2010260.432842623</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2010238.432842623</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2010238.432842623</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1943169.626342623</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
